--- a/simple_salmonella_investigation/simple_salmonella_investigation_00/simple_salmonella_investigation.xlsx
+++ b/simple_salmonella_investigation/simple_salmonella_investigation_00/simple_salmonella_investigation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="schema" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="130">
   <si>
     <t xml:space="preserve">attribute</t>
   </si>
@@ -249,10 +249,16 @@
     <t xml:space="preserve">id</t>
   </si>
   <si>
-    <t xml:space="preserve">subject_id</t>
+    <t xml:space="preserve">subject_identifier</t>
   </si>
   <si>
     <t xml:space="preserve">birthdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0001A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0002A</t>
   </si>
   <si>
     <t xml:space="preserve">name</t>
@@ -427,6 +433,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -518,7 +525,7 @@
   </sheetPr>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -922,14 +929,14 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="28.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="28.19"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -948,6 +955,9 @@
       <c r="A2" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="B2" s="0" t="s">
+        <v>75</v>
+      </c>
       <c r="C2" s="2" t="n">
         <v>32408</v>
       </c>
@@ -956,6 +966,9 @@
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="B3" s="0" t="s">
+        <v>76</v>
+      </c>
       <c r="C3" s="2" t="n">
         <v>18843</v>
       </c>
@@ -963,7 +976,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -995,16 +1008,16 @@
         <v>72</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1012,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>43160</v>
@@ -1026,10 +1039,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>43195</v>
@@ -1040,10 +1053,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>43132</v>
@@ -1054,10 +1067,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>43181</v>
@@ -1066,7 +1079,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1088,7 +1101,7 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.35"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.58"/>
@@ -1100,16 +1113,16 @@
         <v>72</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1123,7 +1136,7 @@
         <v>43272</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1138,7 +1151,7 @@
         <v>43272</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -1153,7 +1166,7 @@
         <v>43272</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -1168,7 +1181,7 @@
         <v>43272</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -1183,13 +1196,13 @@
         <v>43283</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1220,7 +1233,7 @@
         <v>72</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1228,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1236,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1244,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1252,7 +1265,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1260,13 +1273,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1288,7 +1301,7 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
@@ -1298,10 +1311,10 @@
         <v>72</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1362,7 +1375,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1396,19 +1409,19 @@
         <v>72</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1419,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1439,16 +1452,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1459,16 +1472,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1479,16 +1492,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1499,16 +1512,16 @@
         <v>2</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1519,16 +1532,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1539,16 +1552,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1559,16 +1572,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1579,16 +1592,16 @@
         <v>4</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1599,22 +1612,22 @@
         <v>4</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1648,16 +1661,16 @@
         <v>72</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1668,13 +1681,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1685,13 +1698,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1702,13 +1715,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1719,13 +1732,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1736,19 +1749,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1780,13 +1793,13 @@
         <v>72</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1797,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1811,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>32</v>
@@ -1825,10 +1838,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1839,7 +1852,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>18</v>
@@ -1853,10 +1866,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1867,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>32</v>
@@ -1881,10 +1894,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1895,7 +1908,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>32</v>
@@ -1909,10 +1922,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1923,7 +1936,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>32</v>
@@ -1932,7 +1945,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
